--- a/HomeWork/Seminar1/HomeWork1.xlsx
+++ b/HomeWork/Seminar1/HomeWork1.xlsx
@@ -77,9 +77,6 @@
     <t>Маршруты (RouteID)</t>
   </si>
   <si>
-    <t>Модели автобуса (InfoID)</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Seats</t>
   </si>
   <si>
-    <t>TotalCars</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
@@ -228,6 +222,12 @@
   </si>
   <si>
     <t>Кондукторы (ConductorID)</t>
+  </si>
+  <si>
+    <t>Марки автобуса (InfoID)</t>
+  </si>
+  <si>
+    <t>TotalBuses</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1087,7 +1087,7 @@
       <c r="B1" s="15"/>
       <c r="C1" s="17"/>
       <c r="I1" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="17"/>
@@ -1115,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P2" s="23"/>
     </row>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L3" s="26">
         <v>6576</v>
       </c>
       <c r="M3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="O3" s="9">
         <v>957475950</v>
@@ -1199,19 +1199,19 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" s="13">
         <v>6608</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2">
         <v>585041125</v>
@@ -1241,19 +1241,19 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="13">
         <v>6637</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2">
         <v>440489314</v>
@@ -1283,19 +1283,19 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="13">
         <v>7034</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2">
         <v>914018836</v>
@@ -1325,19 +1325,19 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7" s="13">
         <v>6700</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="O7" s="2">
         <v>999837418</v>
@@ -1367,19 +1367,19 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="13">
         <v>6732</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="O8" s="2">
         <v>260062096</v>
@@ -1409,19 +1409,19 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="13">
         <v>6763</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O9" s="2">
         <v>701521460</v>
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L10" s="13">
         <v>6795</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O10" s="2">
         <v>496717001</v>
@@ -1493,19 +1493,19 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" s="13">
         <v>6827</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="2">
         <v>153281721</v>
@@ -1534,19 +1534,19 @@
         <v>10</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L12" s="22">
         <v>7223</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O12" s="4">
         <v>851512701</v>
@@ -1560,7 +1560,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="17"/>
       <c r="I15" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="16"/>
@@ -1576,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
@@ -1588,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>12</v>
@@ -1627,19 +1627,19 @@
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L17" s="26">
         <v>6941</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O17" s="25"/>
     </row>
@@ -1666,19 +1666,19 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L18" s="13">
         <v>6608</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O18" s="25"/>
     </row>
@@ -1705,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L19" s="13">
         <v>7002</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O19" s="25"/>
     </row>
@@ -1744,19 +1744,19 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L20" s="13">
         <v>6669</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O20" s="25"/>
     </row>
@@ -1783,19 +1783,19 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="13">
         <v>6700</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O21" s="25"/>
     </row>
@@ -1822,19 +1822,19 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L22" s="13">
         <v>7097</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O22" s="25"/>
     </row>
@@ -1861,19 +1861,19 @@
         <v>7</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L23" s="13">
         <v>7128</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="O23" s="25"/>
     </row>
@@ -1900,19 +1900,19 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L24" s="13">
         <v>7160</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O24" s="27"/>
     </row>
@@ -1939,19 +1939,19 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L25" s="13">
         <v>6827</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1">
@@ -1977,25 +1977,25 @@
         <v>10</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L26" s="22">
         <v>7223</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1"/>
     <row r="29" spans="1:15" ht="15" thickBot="1">
       <c r="A29" s="14" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2025,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="5">
         <v>35</v>
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2045,10 +2045,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>33</v>
@@ -2057,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2065,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2085,10 +2085,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
         <v>30</v>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2105,10 +2105,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1">
         <v>37</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2125,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
         <v>44</v>
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2145,10 +2145,10 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1">
         <v>42</v>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2165,10 +2165,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1">
         <v>37</v>
@@ -2177,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2185,10 +2185,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1">
         <v>36</v>
@@ -2197,7 +2197,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1">
@@ -2205,10 +2205,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D40" s="3">
         <v>42</v>
@@ -2217,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
